--- a/Input/Mail.xlsx
+++ b/Input/Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khalid/Desktop/BKG87/Monitoring_BankingApps/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F645AB9-C1FD-784E-97CC-10A91BD33F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1ADE90-1A43-534E-898D-FAF52B970936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16120" xr2:uid="{FDDEAB81-3B8D-4741-B87A-AC28992B76E4}"/>
+    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16120" xr2:uid="{FDDEAB81-3B8D-4741-B87A-AC28992B76E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -59,17 +59,14 @@
     <t>test mail: Latest banking app updates (automated mail)</t>
   </si>
   <si>
-    <t>Hi subscriber, please find attached an excel file with an overview of the latest versions and updates of the Belgian banking apps.</t>
-  </si>
-  <si>
-    <t>(put app password from gmail here)</t>
+    <t>Hi subscriber, Could you update your assessment based on the info in the patch notes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +81,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF18191B"/>
+      <name val="Courier"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,9 +110,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,7 +432,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,13 +459,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>

--- a/Input/Mail.xlsx
+++ b/Input/Mail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khalid/Desktop/BKG87/Monitoring_BankingApps/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhalidAmine\Desktop\Khalid_Personal\Projects\Monitoring_BankingApps\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1ADE90-1A43-534E-898D-FAF52B970936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BC341-1935-4626-8BBE-10C075F184F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16120" xr2:uid="{FDDEAB81-3B8D-4741-B87A-AC28992B76E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDDEAB81-3B8D-4741-B87A-AC28992B76E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Hi subscriber, Could you update your assessment based on the info in the patch notes.</t>
+  </si>
+  <si>
+    <t>anzjqsetncldeogi</t>
   </si>
 </sst>
 </file>
@@ -432,17 +435,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,11 +462,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -474,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>

--- a/Input/Mail.xlsx
+++ b/Input/Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhalidAmine\Desktop\Khalid_Personal\Projects\Monitoring_BankingApps\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BC341-1935-4626-8BBE-10C075F184F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1794D58F-14BD-49DF-B0ED-B6A0E1909079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDDEAB81-3B8D-4741-B87A-AC28992B76E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Hi subscriber, Could you update your assessment based on the info in the patch notes.</t>
-  </si>
-  <si>
-    <t>anzjqsetncldeogi</t>
   </si>
 </sst>
 </file>
@@ -466,9 +463,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
